--- a/file/example_products.xlsx
+++ b/file/example_products.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramazon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radius\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F66AC-2E51-4CE3-BA21-AC4CD68600D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -79,8 +78,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +121,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,8 +148,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -150,9 +160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -162,12 +169,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,11 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -462,10 +473,10 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -473,16 +484,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>1234567891234</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>1234567891234</v>
       </c>
       <c r="E2" s="2"/>

--- a/file/example_products.xlsx
+++ b/file/example_products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radius\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radius\Desktop\CashBek\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
       <t xml:space="preserve">Модел </t>
@@ -49,30 +49,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Категория</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
+    <t>Iphone 14 Pro</t>
   </si>
   <si>
-    <t>GSM</t>
-  </si>
-  <si>
-    <t>IMEI 2</t>
-  </si>
-  <si>
-    <t>IMEI 1/Серия *</t>
-  </si>
-  <si>
-    <t>Iphone 14 Pro</t>
+    <t>IMEI /Серия *</t>
   </si>
 </sst>
 </file>
@@ -82,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +86,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,9 +124,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,13 +140,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,52 +419,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5">
         <v>1234567891234</v>
       </c>
-      <c r="D2" s="7">
-        <v>1234567891234</v>
-      </c>
-      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
